--- a/my_package/traj_excel_30/tested_robot_traj_2_.xlsx
+++ b/my_package/traj_excel_30/tested_robot_traj_2_.xlsx
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.9903733673316458</v>
+        <v>0.9903733673316458</v>
       </c>
       <c r="C1" t="n">
-        <v>1.571050106399762</v>
+        <v>-0.0002537796048658035</v>
       </c>
       <c r="D1" t="n">
-        <v>1.40006462893066</v>
+        <v>-1.40006462893066</v>
       </c>
       <c r="E1" t="n">
-        <v>1.399810963551616</v>
+        <v>0.1709853632432805</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796390562869</v>
+        <v>1.570796390562869</v>
       </c>
       <c r="G1" t="n">
         <v>-0.5804230367656859</v>
@@ -449,19 +449,19 @@
         <v>0.2064119796805995</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9921109396706966</v>
+        <v>0.9921109396706966</v>
       </c>
       <c r="C2" t="n">
-        <v>1.571043909226244</v>
+        <v>-0.0002475824313470903</v>
       </c>
       <c r="D2" t="n">
-        <v>1.400018602685125</v>
+        <v>-1.400018602685125</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399771134591824</v>
+        <v>0.1710251922030726</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796390573616</v>
+        <v>1.570796390573616</v>
       </c>
       <c r="G2" t="n">
         <v>-0.5786854644427337</v>
@@ -472,19 +472,19 @@
         <v>0.412823959361199</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.002947235608045</v>
+        <v>1.002947235608045</v>
       </c>
       <c r="C3" t="n">
-        <v>1.57100526081736</v>
+        <v>-0.000208934022463834</v>
       </c>
       <c r="D3" t="n">
-        <v>1.39973156196383</v>
+        <v>-1.39973156196383</v>
       </c>
       <c r="E3" t="n">
-        <v>1.399522742979294</v>
+        <v>0.1712735838156022</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796390640639</v>
+        <v>1.570796390640639</v>
       </c>
       <c r="G3" t="n">
         <v>-0.567849168605785</v>
@@ -495,19 +495,19 @@
         <v>0.6192359390417985</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.02857456005494</v>
+        <v>1.02857456005494</v>
       </c>
       <c r="C4" t="n">
-        <v>1.570913859168722</v>
+        <v>-0.0001175323738254093</v>
       </c>
       <c r="D4" t="n">
-        <v>1.399052724311498</v>
+        <v>-1.399052724311498</v>
       </c>
       <c r="E4" t="n">
-        <v>1.398935308630787</v>
+        <v>0.1718610181641091</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796390799146</v>
+        <v>1.570796390799146</v>
       </c>
       <c r="G4" t="n">
         <v>-0.5422218443963294</v>
@@ -518,19 +518,19 @@
         <v>0.825647918722398</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.07145808442964</v>
+        <v>1.07145808442964</v>
       </c>
       <c r="C5" t="n">
-        <v>1.570760912073702</v>
+        <v>3.541472119404524e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>1.397916790239622</v>
+        <v>-1.397916790239622</v>
       </c>
       <c r="E5" t="n">
-        <v>1.39795232442364</v>
+        <v>0.1728440023712562</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796391064382</v>
+        <v>1.570796391064382</v>
       </c>
       <c r="G5" t="n">
         <v>-0.4993383204189489</v>
@@ -541,19 +541,19 @@
         <v>1.032059898402997</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.131373702239576</v>
+        <v>1.131373702239576</v>
       </c>
       <c r="C6" t="n">
-        <v>1.570547218823813</v>
+        <v>0.0002491079710830877</v>
       </c>
       <c r="D6" t="n">
-        <v>1.396329696065339</v>
+        <v>-1.396329696065339</v>
       </c>
       <c r="E6" t="n">
-        <v>1.396578927369004</v>
+        <v>0.1742173994258922</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796391434963</v>
+        <v>1.570796391434963</v>
       </c>
       <c r="G6" t="n">
         <v>-0.4394227031641362</v>
@@ -564,19 +564,19 @@
         <v>1.238471878083597</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.205945884663518</v>
+        <v>1.205945884663518</v>
       </c>
       <c r="C7" t="n">
-        <v>1.570281251909076</v>
+        <v>0.0005150748858204336</v>
       </c>
       <c r="D7" t="n">
-        <v>1.394354366750301</v>
+        <v>-1.394354366750301</v>
       </c>
       <c r="E7" t="n">
-        <v>1.394869569785082</v>
+        <v>0.1759267570098149</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.570796391896196</v>
+        <v>1.570796391896196</v>
       </c>
       <c r="G7" t="n">
         <v>-0.3648505214311121</v>
@@ -587,19 +587,19 @@
         <v>1.444883857764196</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.291185536133739</v>
+        <v>1.291185536133739</v>
       </c>
       <c r="C8" t="n">
-        <v>1.569977238718394</v>
+        <v>0.0008190880765024157</v>
       </c>
       <c r="D8" t="n">
-        <v>1.392096468739544</v>
+        <v>-1.392096468739544</v>
       </c>
       <c r="E8" t="n">
-        <v>1.392915690470363</v>
+        <v>0.1778806363245333</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.570796392423408</v>
+        <v>1.570796392423408</v>
       </c>
       <c r="G8" t="n">
         <v>-0.2796108707506437</v>
@@ -610,19 +610,19 @@
         <v>1.651295837444796</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.382027849918183</v>
+        <v>1.382027849918183</v>
       </c>
       <c r="C9" t="n">
-        <v>1.569653243239926</v>
+        <v>0.001143083554970447</v>
       </c>
       <c r="D9" t="n">
-        <v>1.389690162800365</v>
+        <v>-1.389690162800365</v>
       </c>
       <c r="E9" t="n">
-        <v>1.390833385876866</v>
+        <v>0.179962940918031</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.570796392985272</v>
+        <v>1.570796392985272</v>
       </c>
       <c r="G9" t="n">
         <v>-0.1887685578078621</v>
@@ -633,19 +633,19 @@
         <v>1.857707817125395</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.472870163702626</v>
+        <v>1.472870163702626</v>
       </c>
       <c r="C10" t="n">
-        <v>1.569329247761458</v>
+        <v>0.001467079033438478</v>
       </c>
       <c r="D10" t="n">
-        <v>1.387283856861185</v>
+        <v>-1.387283856861185</v>
       </c>
       <c r="E10" t="n">
-        <v>1.388751081283368</v>
+        <v>0.1820452455115286</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.570796393547136</v>
+        <v>1.570796393547136</v>
       </c>
       <c r="G10" t="n">
         <v>-0.09792624486508039</v>
@@ -656,19 +656,19 @@
         <v>2.064119796805995</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.558109815172848</v>
+        <v>1.558109815172848</v>
       </c>
       <c r="C11" t="n">
-        <v>1.569025234570776</v>
+        <v>0.00177109222412046</v>
       </c>
       <c r="D11" t="n">
-        <v>1.385025958850429</v>
+        <v>-1.385025958850429</v>
       </c>
       <c r="E11" t="n">
-        <v>1.386797201968649</v>
+        <v>0.183999124826247</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.570796394074348</v>
+        <v>1.570796394074348</v>
       </c>
       <c r="G11" t="n">
         <v>-0.01268659418461193</v>
@@ -679,19 +679,19 @@
         <v>2.270531776486594</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.632681997596789</v>
+        <v>1.632681997596789</v>
       </c>
       <c r="C12" t="n">
-        <v>1.568759267656039</v>
+        <v>0.002037059138857806</v>
       </c>
       <c r="D12" t="n">
-        <v>1.38305062953539</v>
+        <v>-1.38305062953539</v>
       </c>
       <c r="E12" t="n">
-        <v>1.385087844384727</v>
+        <v>0.1857084824101697</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.570796394535581</v>
+        <v>1.570796394535581</v>
       </c>
       <c r="G12" t="n">
         <v>0.061885587548412</v>
@@ -702,19 +702,19 @@
         <v>2.476943756167194</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.692597615406726</v>
+        <v>1.692597615406726</v>
       </c>
       <c r="C13" t="n">
-        <v>1.56854557440615</v>
+        <v>0.002250752388746849</v>
       </c>
       <c r="D13" t="n">
-        <v>1.381463535361107</v>
+        <v>-1.381463535361107</v>
       </c>
       <c r="E13" t="n">
-        <v>1.383714447330091</v>
+        <v>0.1870818794648058</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.570796394906162</v>
+        <v>1.570796394906162</v>
       </c>
       <c r="G13" t="n">
         <v>0.1218012048032248</v>
@@ -725,19 +725,19 @@
         <v>2.683355735847794</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.735481139781426</v>
+        <v>1.735481139781426</v>
       </c>
       <c r="C14" t="n">
-        <v>1.56839262731113</v>
+        <v>0.002403699483766303</v>
       </c>
       <c r="D14" t="n">
-        <v>1.380327601289231</v>
+        <v>-1.380327601289231</v>
       </c>
       <c r="E14" t="n">
-        <v>1.382731463122944</v>
+        <v>0.1880648636719529</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.570796395171398</v>
+        <v>1.570796395171398</v>
       </c>
       <c r="G14" t="n">
         <v>0.164684728780605</v>
@@ -748,19 +748,19 @@
         <v>2.889767715528393</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.761108464228321</v>
+        <v>1.761108464228321</v>
       </c>
       <c r="C15" t="n">
-        <v>1.568301225662492</v>
+        <v>0.002495101132404725</v>
       </c>
       <c r="D15" t="n">
-        <v>1.379648763636899</v>
+        <v>-1.379648763636899</v>
       </c>
       <c r="E15" t="n">
-        <v>1.382144028774437</v>
+        <v>0.1886522980204598</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.570796395329905</v>
+        <v>1.570796395329905</v>
       </c>
       <c r="G15" t="n">
         <v>0.190312052990061</v>
@@ -771,19 +771,19 @@
         <v>3.096179695208992</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.771944760165668</v>
+        <v>1.771944760165668</v>
       </c>
       <c r="C16" t="n">
-        <v>1.568262577253609</v>
+        <v>0.002533749541287982</v>
       </c>
       <c r="D16" t="n">
-        <v>1.379361722915605</v>
+        <v>-1.379361722915605</v>
       </c>
       <c r="E16" t="n">
-        <v>1.381895637161907</v>
+        <v>0.1889006896329894</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.570796395396928</v>
+        <v>1.570796395396928</v>
       </c>
       <c r="G16" t="n">
         <v>0.2011483488270092</v>
@@ -794,19 +794,19 @@
         <v>3.302591674889592</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.77368233250472</v>
+        <v>1.77368233250472</v>
       </c>
       <c r="C17" t="n">
-        <v>1.56825638008009</v>
+        <v>0.002539946714806697</v>
       </c>
       <c r="D17" t="n">
-        <v>1.379315696670069</v>
+        <v>-1.379315696670069</v>
       </c>
       <c r="E17" t="n">
-        <v>1.381855808202115</v>
+        <v>0.1889405185927815</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.570796395407675</v>
+        <v>1.570796395407675</v>
       </c>
       <c r="G17" t="n">
         <v>0.2028859211499613</v>
